--- a/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_pH 수소이온농도/data_pH.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/data_analysis/boxplot_pH 수소이온농도/data_pH.xlsx
@@ -26,10 +26,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="79">
   <si>
-    <t>part</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name_new</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -259,11 +255,15 @@
     <t>B-HO</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Mineral-infused water</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
+    <t>Bottled water</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Products</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -647,34 +647,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="6">
         <v>7.76</v>
@@ -682,10 +682,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
         <v>7.77</v>
@@ -693,10 +693,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="6">
         <v>7.37</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="6">
         <v>7.89</v>
@@ -715,10 +715,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="6">
         <v>9.83</v>
@@ -726,10 +726,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="6">
         <v>7.49</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="6">
         <v>6.66</v>
@@ -748,10 +748,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="6">
         <v>9.7200000000000006</v>
@@ -759,10 +759,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="6">
         <v>9.69</v>
@@ -770,10 +770,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="6">
         <v>7.88</v>
@@ -781,10 +781,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12" s="6">
         <v>7.88</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="6">
         <v>9.02</v>
@@ -803,10 +803,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6">
         <v>7.27</v>
@@ -814,10 +814,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15" s="6">
         <v>7.88</v>
@@ -825,10 +825,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="6">
         <v>7.84</v>
@@ -836,10 +836,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="6">
         <v>7.01</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6">
         <v>7.53</v>
@@ -858,10 +858,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6">
         <v>7.42</v>
@@ -869,10 +869,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C20" s="6">
         <v>7.27</v>
@@ -880,10 +880,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C21" s="6">
         <v>6.8</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C22" s="6">
         <v>7.51</v>
@@ -902,10 +902,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C23" s="6">
         <v>8.11</v>
@@ -913,10 +913,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="6">
         <v>8.7100000000000009</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C25" s="6">
         <v>6.22</v>
@@ -935,10 +935,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C26" s="6">
         <v>7.5</v>
@@ -946,10 +946,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C27" s="6">
         <v>8</v>
@@ -957,10 +957,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C28" s="6">
         <v>6.82</v>
@@ -968,10 +968,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="6">
         <v>8.64</v>
@@ -979,10 +979,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C30" s="6">
         <v>6.26</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C31" s="6">
         <v>6.23</v>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="6">
         <v>7.25</v>
@@ -1012,10 +1012,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="6">
         <v>5.67</v>
@@ -1023,10 +1023,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C34" s="6">
         <v>7.54</v>
@@ -1034,10 +1034,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C35" s="6">
         <v>7.64</v>
@@ -1048,7 +1048,7 @@
         <v>77</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C36" s="6">
         <v>8.18</v>
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="6">
         <v>7.98</v>
@@ -1070,7 +1070,7 @@
         <v>77</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="6">
         <v>6.79</v>
@@ -1081,7 +1081,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" s="6">
         <v>6.6</v>
@@ -1092,7 +1092,7 @@
         <v>77</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="6">
         <v>7.94</v>
@@ -1103,7 +1103,7 @@
         <v>77</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41" s="6">
         <v>6.92</v>
@@ -1114,7 +1114,7 @@
         <v>77</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="6">
         <v>6.74</v>
@@ -1125,7 +1125,7 @@
         <v>77</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="6">
         <v>6.87</v>
@@ -1136,7 +1136,7 @@
         <v>77</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" s="6">
         <v>6.98</v>
@@ -1147,7 +1147,7 @@
         <v>77</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C45" s="6">
         <v>7.04</v>
@@ -1158,7 +1158,7 @@
         <v>77</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C46" s="6">
         <v>7.03</v>
@@ -1169,7 +1169,7 @@
         <v>77</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6">
         <v>7.02</v>
@@ -1180,7 +1180,7 @@
         <v>77</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C48" s="6">
         <v>7.03</v>
@@ -1191,7 +1191,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C49" s="6">
         <v>7.11</v>
@@ -1202,7 +1202,7 @@
         <v>77</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="6">
         <v>7.4</v>
@@ -1213,7 +1213,7 @@
         <v>77</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="6">
         <v>7.41</v>
@@ -1224,7 +1224,7 @@
         <v>77</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C52" s="6">
         <v>7</v>
@@ -1235,7 +1235,7 @@
         <v>77</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C53" s="6">
         <v>7.3</v>
@@ -1246,7 +1246,7 @@
         <v>77</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C54" s="6">
         <v>7.13</v>
@@ -1257,7 +1257,7 @@
         <v>77</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="7" t="e">
         <v>#N/A</v>
@@ -1268,7 +1268,7 @@
         <v>77</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C56" s="6">
         <v>7.88</v>
@@ -1279,7 +1279,7 @@
         <v>77</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" s="6">
         <v>8.2899999999999991</v>
@@ -1290,7 +1290,7 @@
         <v>77</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C58" s="6">
         <v>7.2</v>
@@ -1301,7 +1301,7 @@
         <v>77</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C59" s="6">
         <v>8.1</v>
@@ -1312,7 +1312,7 @@
         <v>77</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C60" s="6">
         <v>7.08</v>
@@ -1323,7 +1323,7 @@
         <v>77</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C61" s="6">
         <v>7.63</v>
@@ -1334,7 +1334,7 @@
         <v>77</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C62" s="7" t="e">
         <v>#N/A</v>
@@ -1345,7 +1345,7 @@
         <v>77</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C63" s="6">
         <v>7.6</v>
@@ -1356,7 +1356,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64" s="6">
         <v>7.9</v>
@@ -1367,7 +1367,7 @@
         <v>77</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C65" s="6">
         <v>7.3</v>
@@ -1378,7 +1378,7 @@
         <v>77</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C66" s="6">
         <v>7.86</v>
@@ -1389,7 +1389,7 @@
         <v>77</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C67" s="6">
         <v>6.8</v>
@@ -1400,7 +1400,7 @@
         <v>77</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="6">
         <v>6.67</v>
@@ -1411,7 +1411,7 @@
         <v>77</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C69" s="6">
         <v>7.05</v>
@@ -1422,7 +1422,7 @@
         <v>77</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="6">
         <v>6.91</v>
@@ -1433,7 +1433,7 @@
         <v>77</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C71" s="6">
         <v>7.09</v>
@@ -1444,7 +1444,7 @@
         <v>77</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="6">
         <v>6.6</v>
@@ -1455,7 +1455,7 @@
         <v>77</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="6">
         <v>7.19</v>
@@ -1466,7 +1466,7 @@
         <v>77</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="6">
         <v>7.02</v>
@@ -1477,7 +1477,7 @@
         <v>77</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="6">
         <v>7.11</v>
@@ -1488,7 +1488,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C76" s="6">
         <v>7.24</v>
@@ -1499,7 +1499,7 @@
         <v>77</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C77" s="6">
         <v>7.31</v>
@@ -1510,7 +1510,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="7" t="e">
         <v>#N/A</v>
@@ -1521,7 +1521,7 @@
         <v>77</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C79" s="7" t="e">
         <v>#N/A</v>
@@ -1532,7 +1532,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="7" t="e">
         <v>#N/A</v>
@@ -1543,7 +1543,7 @@
         <v>77</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C81" s="7" t="e">
         <v>#N/A</v>
@@ -1554,7 +1554,7 @@
         <v>77</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C82" s="7" t="e">
         <v>#N/A</v>
@@ -1565,7 +1565,7 @@
         <v>77</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C83" s="7" t="e">
         <v>#N/A</v>
@@ -1576,7 +1576,7 @@
         <v>77</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C84" s="7" t="e">
         <v>#N/A</v>
@@ -1587,7 +1587,7 @@
         <v>77</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C85" s="7" t="e">
         <v>#N/A</v>
@@ -1598,7 +1598,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C86" s="6">
         <v>7.68</v>
@@ -1609,7 +1609,7 @@
         <v>77</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C87" s="6">
         <v>7.5</v>
@@ -1620,7 +1620,7 @@
         <v>77</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C88" s="6">
         <v>7.77</v>
@@ -1631,7 +1631,7 @@
         <v>77</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C89" s="6">
         <v>7.6</v>
@@ -1642,7 +1642,7 @@
         <v>77</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C90" s="6">
         <v>7.8</v>
@@ -1653,7 +1653,7 @@
         <v>77</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C91" s="6">
         <v>7.97</v>
@@ -1664,7 +1664,7 @@
         <v>77</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C92" s="6">
         <v>6.9</v>
@@ -1675,7 +1675,7 @@
         <v>77</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C93" s="6">
         <v>6.99</v>
@@ -1686,7 +1686,7 @@
         <v>77</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C94" s="6">
         <v>6.9</v>
@@ -1697,7 +1697,7 @@
         <v>77</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C95" s="7" t="e">
         <v>#N/A</v>
@@ -1708,7 +1708,7 @@
         <v>77</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C96" s="6">
         <v>6.99</v>
@@ -1719,7 +1719,7 @@
         <v>77</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C97" s="6">
         <v>7.23</v>
@@ -1730,7 +1730,7 @@
         <v>77</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C98" s="6">
         <v>7.2</v>
@@ -1741,7 +1741,7 @@
         <v>77</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C99" s="6">
         <v>7.21</v>
@@ -1752,7 +1752,7 @@
         <v>77</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C100" s="7" t="e">
         <v>#N/A</v>
@@ -1763,7 +1763,7 @@
         <v>77</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C101" s="6">
         <v>6.3</v>
@@ -1774,7 +1774,7 @@
         <v>77</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C102" s="6">
         <v>6.9</v>
@@ -1785,7 +1785,7 @@
         <v>77</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C103" s="6">
         <v>7.65</v>
@@ -1796,7 +1796,7 @@
         <v>77</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C104" s="6">
         <v>7.65</v>
@@ -1807,7 +1807,7 @@
         <v>77</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C105" s="6">
         <v>7.51</v>
@@ -1818,7 +1818,7 @@
         <v>77</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C106" s="6">
         <v>7.33</v>
@@ -1829,7 +1829,7 @@
         <v>77</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C107" s="6">
         <v>7.56</v>
@@ -1840,7 +1840,7 @@
         <v>77</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C108" s="6">
         <v>6.7</v>
@@ -1851,7 +1851,7 @@
         <v>77</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C109" s="6">
         <v>7.77</v>
@@ -1862,7 +1862,7 @@
         <v>77</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C110" s="7" t="e">
         <v>#N/A</v>
@@ -1873,7 +1873,7 @@
         <v>77</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C111" s="6">
         <v>6.9</v>
@@ -1884,7 +1884,7 @@
         <v>77</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C112" s="6">
         <v>6.9</v>
@@ -1895,7 +1895,7 @@
         <v>77</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C113" s="6">
         <v>7.1</v>
@@ -1906,7 +1906,7 @@
         <v>77</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C114" s="7" t="e">
         <v>#N/A</v>
@@ -1917,7 +1917,7 @@
         <v>77</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C115" s="7" t="e">
         <v>#N/A</v>
@@ -1928,7 +1928,7 @@
         <v>77</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C116" s="6">
         <v>8.18</v>
@@ -1939,7 +1939,7 @@
         <v>77</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C117" s="6">
         <v>8.2100000000000009</v>
@@ -1950,7 +1950,7 @@
         <v>77</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C118" s="6">
         <v>8.1999999999999993</v>
@@ -1961,7 +1961,7 @@
         <v>77</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C119" s="7" t="e">
         <v>#N/A</v>
@@ -1972,7 +1972,7 @@
         <v>77</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C120" s="7" t="e">
         <v>#N/A</v>
@@ -1983,7 +1983,7 @@
         <v>77</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C121" s="7" t="e">
         <v>#N/A</v>
@@ -1994,7 +1994,7 @@
         <v>77</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C122" s="6">
         <v>6.5</v>
@@ -2005,7 +2005,7 @@
         <v>77</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C123" s="6">
         <v>6.7</v>
@@ -2016,7 +2016,7 @@
         <v>77</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C124" s="6">
         <v>7.07</v>
@@ -2027,7 +2027,7 @@
         <v>77</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C125" s="6">
         <v>7.06</v>
@@ -2038,7 +2038,7 @@
         <v>77</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C126" s="6">
         <v>7.09</v>
@@ -2049,7 +2049,7 @@
         <v>77</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C127" s="6">
         <v>7.41</v>
@@ -2060,7 +2060,7 @@
         <v>77</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C128" s="6">
         <v>7.11</v>
@@ -2071,7 +2071,7 @@
         <v>77</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C129" s="6">
         <v>6.8</v>
@@ -2082,7 +2082,7 @@
         <v>77</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C130" s="6">
         <v>7.08</v>
@@ -2093,7 +2093,7 @@
         <v>77</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C131" s="6">
         <v>6.3</v>
@@ -2104,7 +2104,7 @@
         <v>77</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C132" s="6">
         <v>7.37</v>
@@ -2115,7 +2115,7 @@
         <v>77</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C133" s="6">
         <v>7.2</v>
@@ -2126,7 +2126,7 @@
         <v>77</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C134" s="6">
         <v>6.9</v>
@@ -2137,7 +2137,7 @@
         <v>77</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C135" s="6">
         <v>7.13</v>
@@ -2148,7 +2148,7 @@
         <v>77</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C136" s="7" t="e">
         <v>#N/A</v>
